--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1223374800028</v>
+        <v>36.81423266666667</v>
       </c>
       <c r="H2">
-        <v>33.1223374800028</v>
+        <v>110.442698</v>
       </c>
       <c r="I2">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="J2">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N2">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P2">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q2">
-        <v>6229.91662596726</v>
+        <v>7098.835938931908</v>
       </c>
       <c r="R2">
-        <v>6229.91662596726</v>
+        <v>63889.52345038717</v>
       </c>
       <c r="S2">
-        <v>0.1031870850184326</v>
+        <v>0.1074705355683142</v>
       </c>
       <c r="T2">
-        <v>0.1031870850184326</v>
+        <v>0.1074705355683142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.1223374800028</v>
+        <v>36.81423266666667</v>
       </c>
       <c r="H3">
-        <v>33.1223374800028</v>
+        <v>110.442698</v>
       </c>
       <c r="I3">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="J3">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N3">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P3">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q3">
-        <v>10.27126166544282</v>
+        <v>15.49587135687511</v>
       </c>
       <c r="R3">
-        <v>10.27126166544282</v>
+        <v>139.462842211876</v>
       </c>
       <c r="S3">
-        <v>0.000170124516000896</v>
+        <v>0.0002345947431589237</v>
       </c>
       <c r="T3">
-        <v>0.000170124516000896</v>
+        <v>0.0002345947431589237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.1223374800028</v>
+        <v>36.81423266666667</v>
       </c>
       <c r="H4">
-        <v>33.1223374800028</v>
+        <v>110.442698</v>
       </c>
       <c r="I4">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="J4">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N4">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P4">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q4">
-        <v>1240.611543544965</v>
+        <v>1682.603903930741</v>
       </c>
       <c r="R4">
-        <v>1240.611543544965</v>
+        <v>15143.43513537667</v>
       </c>
       <c r="S4">
-        <v>0.02054844334273052</v>
+        <v>0.02547323874792643</v>
       </c>
       <c r="T4">
-        <v>0.02054844334273052</v>
+        <v>0.02547323874792643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.1223374800028</v>
+        <v>36.81423266666667</v>
       </c>
       <c r="H5">
-        <v>33.1223374800028</v>
+        <v>110.442698</v>
       </c>
       <c r="I5">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="J5">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N5">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P5">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q5">
-        <v>114.319410613506</v>
+        <v>302.749057923936</v>
       </c>
       <c r="R5">
-        <v>114.319410613506</v>
+        <v>2724.741521315425</v>
       </c>
       <c r="S5">
-        <v>0.001893490306606061</v>
+        <v>0.0045833716510405</v>
       </c>
       <c r="T5">
-        <v>0.001893490306606061</v>
+        <v>0.004583371651040499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>214.080632585597</v>
+        <v>214.101181</v>
       </c>
       <c r="H6">
-        <v>214.080632585597</v>
+        <v>642.303543</v>
       </c>
       <c r="I6">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="J6">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N6">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P6">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q6">
-        <v>40266.0136244251</v>
+        <v>41284.82513847765</v>
       </c>
       <c r="R6">
-        <v>40266.0136244251</v>
+        <v>371563.4262462989</v>
       </c>
       <c r="S6">
-        <v>0.6669322915010633</v>
+        <v>0.6250182856238782</v>
       </c>
       <c r="T6">
-        <v>0.6669322915010633</v>
+        <v>0.6250182856238782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>214.080632585597</v>
+        <v>214.101181</v>
       </c>
       <c r="H7">
-        <v>214.080632585597</v>
+        <v>642.303543</v>
       </c>
       <c r="I7">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="J7">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N7">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P7">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q7">
-        <v>66.38656453874175</v>
+        <v>90.11961184064067</v>
       </c>
       <c r="R7">
-        <v>66.38656453874175</v>
+        <v>811.0765065657661</v>
       </c>
       <c r="S7">
-        <v>0.00109957106818861</v>
+        <v>0.001364336777612511</v>
       </c>
       <c r="T7">
-        <v>0.00109957106818861</v>
+        <v>0.001364336777612511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>214.080632585597</v>
+        <v>214.101181</v>
       </c>
       <c r="H8">
-        <v>214.080632585597</v>
+        <v>642.303543</v>
       </c>
       <c r="I8">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="J8">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N8">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P8">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q8">
-        <v>8018.483121713472</v>
+        <v>9785.549144773215</v>
       </c>
       <c r="R8">
-        <v>8018.483121713472</v>
+        <v>88069.94230295894</v>
       </c>
       <c r="S8">
-        <v>0.132811392073911</v>
+        <v>0.1481451630190892</v>
       </c>
       <c r="T8">
-        <v>0.132811392073911</v>
+        <v>0.1481451630190892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>214.080632585597</v>
+        <v>214.101181</v>
       </c>
       <c r="H9">
-        <v>214.080632585597</v>
+        <v>642.303543</v>
       </c>
       <c r="I9">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="J9">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N9">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P9">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q9">
-        <v>738.884197280086</v>
+        <v>1760.703025784976</v>
       </c>
       <c r="R9">
-        <v>738.884197280086</v>
+        <v>15846.32723206478</v>
       </c>
       <c r="S9">
-        <v>0.01223825470885479</v>
+        <v>0.02665559519696878</v>
       </c>
       <c r="T9">
-        <v>0.01223825470885479</v>
+        <v>0.02665559519696877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256483610973723</v>
+        <v>0.2781493333333334</v>
       </c>
       <c r="H10">
-        <v>0.256483610973723</v>
+        <v>0.8344480000000001</v>
       </c>
       <c r="I10">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="J10">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N10">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P10">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q10">
-        <v>48.24150811391289</v>
+        <v>53.63513893485156</v>
       </c>
       <c r="R10">
-        <v>48.24150811391289</v>
+        <v>482.7162504136641</v>
       </c>
       <c r="S10">
-        <v>0.0007990316561250708</v>
+        <v>0.0008119918753153661</v>
       </c>
       <c r="T10">
-        <v>0.0007990316561250708</v>
+        <v>0.0008119918753153661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.256483610973723</v>
+        <v>0.2781493333333334</v>
       </c>
       <c r="H11">
-        <v>0.256483610973723</v>
+        <v>0.8344480000000001</v>
       </c>
       <c r="I11">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="J11">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N11">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P11">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q11">
-        <v>0.07953575990218813</v>
+        <v>0.1170788028195556</v>
       </c>
       <c r="R11">
-        <v>0.07953575990218813</v>
+        <v>1.053709225376</v>
       </c>
       <c r="S11">
-        <v>1.317363250869909E-06</v>
+        <v>1.772476748435443E-06</v>
       </c>
       <c r="T11">
-        <v>1.317363250869909E-06</v>
+        <v>1.772476748435442E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.256483610973723</v>
+        <v>0.2781493333333334</v>
       </c>
       <c r="H12">
-        <v>0.256483610973723</v>
+        <v>0.8344480000000001</v>
       </c>
       <c r="I12">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="J12">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N12">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P12">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q12">
-        <v>9.606705103352201</v>
+        <v>12.71288630079645</v>
       </c>
       <c r="R12">
-        <v>9.606705103352201</v>
+        <v>114.415976707168</v>
       </c>
       <c r="S12">
-        <v>0.0001591173615574198</v>
+        <v>0.0001924626391029466</v>
       </c>
       <c r="T12">
-        <v>0.0001591173615574198</v>
+        <v>0.0001924626391029466</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.256483610973723</v>
+        <v>0.2781493333333334</v>
       </c>
       <c r="H13">
-        <v>0.256483610973723</v>
+        <v>0.8344480000000001</v>
       </c>
       <c r="I13">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="J13">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N13">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O13">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P13">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q13">
-        <v>0.8852350851216948</v>
+        <v>2.287415559936</v>
       </c>
       <c r="R13">
-        <v>0.8852350851216948</v>
+        <v>20.586740039424</v>
       </c>
       <c r="S13">
-        <v>1.4662287390655E-05</v>
+        <v>3.462958961277317E-05</v>
       </c>
       <c r="T13">
-        <v>1.4662287390655E-05</v>
+        <v>3.462958961277316E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.8359602803959</v>
+        <v>16.037618</v>
       </c>
       <c r="H14">
-        <v>15.8359602803959</v>
+        <v>48.112854</v>
       </c>
       <c r="I14">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123193</v>
       </c>
       <c r="J14">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123194</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>188.08807288219</v>
+        <v>192.8285726666667</v>
       </c>
       <c r="N14">
-        <v>188.08807288219</v>
+        <v>578.485718</v>
       </c>
       <c r="O14">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="P14">
-        <v>0.8202526854073616</v>
+        <v>0.7801188850698786</v>
       </c>
       <c r="Q14">
-        <v>2978.55525137857</v>
+        <v>3092.510987913241</v>
       </c>
       <c r="R14">
-        <v>2978.55525137857</v>
+        <v>27832.59889121917</v>
       </c>
       <c r="S14">
-        <v>0.04933427723174068</v>
+        <v>0.04681807200237092</v>
       </c>
       <c r="T14">
-        <v>0.04933427723174068</v>
+        <v>0.04681807200237093</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.8359602803959</v>
+        <v>16.037618</v>
       </c>
       <c r="H15">
-        <v>15.8359602803959</v>
+        <v>48.112854</v>
       </c>
       <c r="I15">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123193</v>
       </c>
       <c r="J15">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123194</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.31010074912871</v>
+        <v>0.4209206666666667</v>
       </c>
       <c r="N15">
-        <v>0.31010074912871</v>
+        <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="P15">
-        <v>0.001352350355458101</v>
+        <v>0.001702901995496819</v>
       </c>
       <c r="Q15">
-        <v>4.910743146123265</v>
+        <v>6.750564860305333</v>
       </c>
       <c r="R15">
-        <v>4.910743146123265</v>
+        <v>60.75508374274801</v>
       </c>
       <c r="S15">
-        <v>8.133740801772479E-05</v>
+        <v>0.000102197997976949</v>
       </c>
       <c r="T15">
-        <v>8.133740801772479E-05</v>
+        <v>0.000102197997976949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.8359602803959</v>
+        <v>16.037618</v>
       </c>
       <c r="H16">
-        <v>15.8359602803959</v>
+        <v>48.112854</v>
       </c>
       <c r="I16">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123193</v>
       </c>
       <c r="J16">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123194</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.4554345475759</v>
+        <v>45.70525533333333</v>
       </c>
       <c r="N16">
-        <v>37.4554345475759</v>
+        <v>137.115766</v>
       </c>
       <c r="O16">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="P16">
-        <v>0.1633432694586236</v>
+        <v>0.184907933193646</v>
       </c>
       <c r="Q16">
-        <v>593.1427737803803</v>
+        <v>733.0034256284627</v>
       </c>
       <c r="R16">
-        <v>593.1427737803803</v>
+        <v>6597.030830656164</v>
       </c>
       <c r="S16">
-        <v>0.00982431668042465</v>
+        <v>0.01109706878752751</v>
       </c>
       <c r="T16">
-        <v>0.00982431668042465</v>
+        <v>0.01109706878752751</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.8359602803959</v>
+        <v>16.037618</v>
       </c>
       <c r="H17">
-        <v>15.8359602803959</v>
+        <v>48.112854</v>
       </c>
       <c r="I17">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123193</v>
       </c>
       <c r="J17">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.45142943738572</v>
+        <v>8.223696</v>
       </c>
       <c r="N17">
-        <v>3.45142943738572</v>
+        <v>24.671088</v>
       </c>
       <c r="O17">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="P17">
-        <v>0.01505169477855673</v>
+        <v>0.0332702797409786</v>
       </c>
       <c r="Q17">
-        <v>54.65669948102943</v>
+        <v>131.888494996128</v>
       </c>
       <c r="R17">
-        <v>54.65669948102943</v>
+        <v>1186.996454965152</v>
       </c>
       <c r="S17">
-        <v>0.0009052874757052234</v>
+        <v>0.001996683303356556</v>
       </c>
       <c r="T17">
-        <v>0.0009052874757052234</v>
+        <v>0.001996683303356556</v>
       </c>
     </row>
   </sheetData>
